--- a/РахинскаяД3-5.xlsx
+++ b/РахинскаяД3-5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trakhinskaya\Desktop\обучение\Тестеровщик\Теория\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trakhinskaya\Desktop\обучение\Тестеровщик\Теория\Test1905\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="133">
   <si>
     <t>№</t>
   </si>
@@ -591,6 +591,9 @@
   <si>
     <t>Каждый вопрос открывается и виден ответ на него</t>
   </si>
+  <si>
+    <t>пройден</t>
+  </si>
 </sst>
 </file>
 
@@ -1098,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1174,7 +1177,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2445,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2458,7 +2460,8 @@
     <col min="5" max="5" width="49.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="41.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="110" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
+    <col min="9" max="110" width="8.85546875" style="1" customWidth="1"/>
     <col min="111" max="256" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3024,20 +3027,20 @@
     </row>
     <row r="6" spans="1:110" ht="27" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="67" t="s">
+      <c r="F6" s="69"/>
+      <c r="G6" s="66" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="11"/>
@@ -3146,16 +3149,16 @@
     </row>
     <row r="7" spans="1:110" ht="53.25" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="68"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="11"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -3268,19 +3271,21 @@
       <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3390,17 +3395,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="53" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="16"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -3510,17 +3517,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="19"/>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="54" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="H10" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="21"/>
@@ -3633,14 +3642,16 @@
       <c r="D11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="53" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="19"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -3747,17 +3758,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="19"/>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
@@ -3867,17 +3880,19 @@
         <v>6</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -3987,119 +4002,121 @@
         <v>7</v>
       </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="54" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="30"/>
-      <c r="AX14" s="31"/>
-      <c r="AY14" s="30"/>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="30"/>
-      <c r="BB14" s="31"/>
-      <c r="BC14" s="30"/>
-      <c r="BD14" s="31"/>
-      <c r="BE14" s="30"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="30"/>
-      <c r="BH14" s="31"/>
-      <c r="BI14" s="30"/>
-      <c r="BJ14" s="31"/>
-      <c r="BK14" s="30"/>
-      <c r="BL14" s="31"/>
-      <c r="BM14" s="30"/>
-      <c r="BN14" s="31"/>
-      <c r="BO14" s="30"/>
-      <c r="BP14" s="31"/>
-      <c r="BQ14" s="30"/>
-      <c r="BR14" s="31"/>
-      <c r="BS14" s="30"/>
-      <c r="BT14" s="31"/>
-      <c r="BU14" s="30"/>
-      <c r="BV14" s="31"/>
-      <c r="BW14" s="30"/>
-      <c r="BX14" s="31"/>
-      <c r="BY14" s="30"/>
-      <c r="BZ14" s="31"/>
-      <c r="CA14" s="30"/>
-      <c r="CB14" s="31"/>
-      <c r="CC14" s="30"/>
-      <c r="CD14" s="31"/>
-      <c r="CE14" s="30"/>
-      <c r="CF14" s="31"/>
-      <c r="CG14" s="30"/>
-      <c r="CH14" s="31"/>
-      <c r="CI14" s="30"/>
-      <c r="CJ14" s="31"/>
-      <c r="CK14" s="30"/>
-      <c r="CL14" s="31"/>
-      <c r="CM14" s="30"/>
-      <c r="CN14" s="31"/>
-      <c r="CO14" s="30"/>
-      <c r="CP14" s="31"/>
-      <c r="CQ14" s="30"/>
-      <c r="CR14" s="31"/>
-      <c r="CS14" s="30"/>
-      <c r="CT14" s="31"/>
-      <c r="CU14" s="30"/>
-      <c r="CV14" s="31"/>
-      <c r="CW14" s="31"/>
-      <c r="CX14" s="31"/>
-      <c r="CY14" s="31"/>
-      <c r="CZ14" s="32"/>
-      <c r="DA14" s="31"/>
-      <c r="DB14" s="33"/>
-      <c r="DC14" s="33"/>
-      <c r="DD14" s="33"/>
-      <c r="DE14" s="33"/>
-      <c r="DF14" s="33"/>
+      <c r="H14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="30"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="30"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="30"/>
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="30"/>
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="30"/>
+      <c r="BE14" s="29"/>
+      <c r="BF14" s="30"/>
+      <c r="BG14" s="29"/>
+      <c r="BH14" s="30"/>
+      <c r="BI14" s="29"/>
+      <c r="BJ14" s="30"/>
+      <c r="BK14" s="29"/>
+      <c r="BL14" s="30"/>
+      <c r="BM14" s="29"/>
+      <c r="BN14" s="30"/>
+      <c r="BO14" s="29"/>
+      <c r="BP14" s="30"/>
+      <c r="BQ14" s="29"/>
+      <c r="BR14" s="30"/>
+      <c r="BS14" s="29"/>
+      <c r="BT14" s="30"/>
+      <c r="BU14" s="29"/>
+      <c r="BV14" s="30"/>
+      <c r="BW14" s="29"/>
+      <c r="BX14" s="30"/>
+      <c r="BY14" s="29"/>
+      <c r="BZ14" s="30"/>
+      <c r="CA14" s="29"/>
+      <c r="CB14" s="30"/>
+      <c r="CC14" s="29"/>
+      <c r="CD14" s="30"/>
+      <c r="CE14" s="29"/>
+      <c r="CF14" s="30"/>
+      <c r="CG14" s="29"/>
+      <c r="CH14" s="30"/>
+      <c r="CI14" s="29"/>
+      <c r="CJ14" s="30"/>
+      <c r="CK14" s="29"/>
+      <c r="CL14" s="30"/>
+      <c r="CM14" s="29"/>
+      <c r="CN14" s="30"/>
+      <c r="CO14" s="29"/>
+      <c r="CP14" s="30"/>
+      <c r="CQ14" s="29"/>
+      <c r="CR14" s="30"/>
+      <c r="CS14" s="29"/>
+      <c r="CT14" s="30"/>
+      <c r="CU14" s="29"/>
+      <c r="CV14" s="30"/>
+      <c r="CW14" s="30"/>
+      <c r="CX14" s="30"/>
+      <c r="CY14" s="30"/>
+      <c r="CZ14" s="31"/>
+      <c r="DA14" s="30"/>
+      <c r="DB14" s="32"/>
+      <c r="DC14" s="32"/>
+      <c r="DD14" s="32"/>
+      <c r="DE14" s="32"/>
+      <c r="DF14" s="32"/>
     </row>
     <row r="15" spans="1:110" ht="135" customHeight="1">
       <c r="A15" s="10"/>
@@ -4107,17 +4124,19 @@
         <v>8</v>
       </c>
       <c r="C15" s="19"/>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="54" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="19"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
@@ -4227,17 +4246,19 @@
         <v>9</v>
       </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="54" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="19"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
@@ -4347,17 +4368,19 @@
         <v>10</v>
       </c>
       <c r="C17" s="19"/>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="54" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="19"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
@@ -4466,20 +4489,22 @@
       <c r="B18" s="13">
         <v>11</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="61" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="19"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
@@ -4588,8 +4613,8 @@
       <c r="B19" s="13">
         <v>12</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="60" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -4599,109 +4624,111 @@
         <v>49</v>
       </c>
       <c r="G19" s="19"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="59"/>
-      <c r="AS19" s="59"/>
-      <c r="AT19" s="59"/>
-      <c r="AU19" s="59"/>
-      <c r="AV19" s="59"/>
-      <c r="AW19" s="59"/>
-      <c r="AX19" s="59"/>
-      <c r="AY19" s="59"/>
-      <c r="AZ19" s="59"/>
-      <c r="BA19" s="59"/>
-      <c r="BB19" s="59"/>
-      <c r="BC19" s="59"/>
-      <c r="BD19" s="59"/>
-      <c r="BE19" s="59"/>
-      <c r="BF19" s="59"/>
-      <c r="BG19" s="59"/>
-      <c r="BH19" s="59"/>
-      <c r="BI19" s="59"/>
-      <c r="BJ19" s="59"/>
-      <c r="BK19" s="59"/>
-      <c r="BL19" s="59"/>
-      <c r="BM19" s="59"/>
-      <c r="BN19" s="59"/>
-      <c r="BO19" s="59"/>
-      <c r="BP19" s="59"/>
-      <c r="BQ19" s="59"/>
-      <c r="BR19" s="59"/>
-      <c r="BS19" s="59"/>
-      <c r="BT19" s="59"/>
-      <c r="BU19" s="59"/>
-      <c r="BV19" s="59"/>
-      <c r="BW19" s="59"/>
-      <c r="BX19" s="59"/>
-      <c r="BY19" s="59"/>
-      <c r="BZ19" s="59"/>
-      <c r="CA19" s="59"/>
-      <c r="CB19" s="59"/>
-      <c r="CC19" s="59"/>
-      <c r="CD19" s="59"/>
-      <c r="CE19" s="59"/>
-      <c r="CF19" s="59"/>
-      <c r="CG19" s="59"/>
-      <c r="CH19" s="59"/>
-      <c r="CI19" s="59"/>
-      <c r="CJ19" s="59"/>
-      <c r="CK19" s="59"/>
-      <c r="CL19" s="59"/>
-      <c r="CM19" s="59"/>
-      <c r="CN19" s="59"/>
-      <c r="CO19" s="59"/>
-      <c r="CP19" s="59"/>
-      <c r="CQ19" s="59"/>
-      <c r="CR19" s="59"/>
-      <c r="CS19" s="59"/>
-      <c r="CT19" s="59"/>
-      <c r="CU19" s="59"/>
-      <c r="CV19" s="59"/>
-      <c r="CW19" s="59"/>
-      <c r="CX19" s="59"/>
-      <c r="CY19" s="59"/>
-      <c r="CZ19" s="59"/>
-      <c r="DA19" s="59"/>
-      <c r="DB19" s="59"/>
-      <c r="DC19" s="59"/>
-      <c r="DD19" s="59"/>
-      <c r="DE19" s="59"/>
-      <c r="DF19" s="59"/>
+      <c r="H19" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="58"/>
+      <c r="AS19" s="58"/>
+      <c r="AT19" s="58"/>
+      <c r="AU19" s="58"/>
+      <c r="AV19" s="58"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="58"/>
+      <c r="AZ19" s="58"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="58"/>
+      <c r="BC19" s="58"/>
+      <c r="BD19" s="58"/>
+      <c r="BE19" s="58"/>
+      <c r="BF19" s="58"/>
+      <c r="BG19" s="58"/>
+      <c r="BH19" s="58"/>
+      <c r="BI19" s="58"/>
+      <c r="BJ19" s="58"/>
+      <c r="BK19" s="58"/>
+      <c r="BL19" s="58"/>
+      <c r="BM19" s="58"/>
+      <c r="BN19" s="58"/>
+      <c r="BO19" s="58"/>
+      <c r="BP19" s="58"/>
+      <c r="BQ19" s="58"/>
+      <c r="BR19" s="58"/>
+      <c r="BS19" s="58"/>
+      <c r="BT19" s="58"/>
+      <c r="BU19" s="58"/>
+      <c r="BV19" s="58"/>
+      <c r="BW19" s="58"/>
+      <c r="BX19" s="58"/>
+      <c r="BY19" s="58"/>
+      <c r="BZ19" s="58"/>
+      <c r="CA19" s="58"/>
+      <c r="CB19" s="58"/>
+      <c r="CC19" s="58"/>
+      <c r="CD19" s="58"/>
+      <c r="CE19" s="58"/>
+      <c r="CF19" s="58"/>
+      <c r="CG19" s="58"/>
+      <c r="CH19" s="58"/>
+      <c r="CI19" s="58"/>
+      <c r="CJ19" s="58"/>
+      <c r="CK19" s="58"/>
+      <c r="CL19" s="58"/>
+      <c r="CM19" s="58"/>
+      <c r="CN19" s="58"/>
+      <c r="CO19" s="58"/>
+      <c r="CP19" s="58"/>
+      <c r="CQ19" s="58"/>
+      <c r="CR19" s="58"/>
+      <c r="CS19" s="58"/>
+      <c r="CT19" s="58"/>
+      <c r="CU19" s="58"/>
+      <c r="CV19" s="58"/>
+      <c r="CW19" s="58"/>
+      <c r="CX19" s="58"/>
+      <c r="CY19" s="58"/>
+      <c r="CZ19" s="58"/>
+      <c r="DA19" s="58"/>
+      <c r="DB19" s="58"/>
+      <c r="DC19" s="58"/>
+      <c r="DD19" s="58"/>
+      <c r="DE19" s="58"/>
+      <c r="DF19" s="58"/>
     </row>
     <row r="20" spans="1:110" ht="135" customHeight="1">
       <c r="A20" s="10"/>
@@ -4709,7 +4736,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="60" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -4718,112 +4745,114 @@
       <c r="F20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="59"/>
-      <c r="AS20" s="59"/>
-      <c r="AT20" s="59"/>
-      <c r="AU20" s="59"/>
-      <c r="AV20" s="59"/>
-      <c r="AW20" s="59"/>
-      <c r="AX20" s="59"/>
-      <c r="AY20" s="59"/>
-      <c r="AZ20" s="59"/>
-      <c r="BA20" s="59"/>
-      <c r="BB20" s="59"/>
-      <c r="BC20" s="59"/>
-      <c r="BD20" s="59"/>
-      <c r="BE20" s="59"/>
-      <c r="BF20" s="59"/>
-      <c r="BG20" s="59"/>
-      <c r="BH20" s="59"/>
-      <c r="BI20" s="59"/>
-      <c r="BJ20" s="59"/>
-      <c r="BK20" s="59"/>
-      <c r="BL20" s="59"/>
-      <c r="BM20" s="59"/>
-      <c r="BN20" s="59"/>
-      <c r="BO20" s="59"/>
-      <c r="BP20" s="59"/>
-      <c r="BQ20" s="59"/>
-      <c r="BR20" s="59"/>
-      <c r="BS20" s="59"/>
-      <c r="BT20" s="59"/>
-      <c r="BU20" s="59"/>
-      <c r="BV20" s="59"/>
-      <c r="BW20" s="59"/>
-      <c r="BX20" s="59"/>
-      <c r="BY20" s="59"/>
-      <c r="BZ20" s="59"/>
-      <c r="CA20" s="59"/>
-      <c r="CB20" s="59"/>
-      <c r="CC20" s="59"/>
-      <c r="CD20" s="59"/>
-      <c r="CE20" s="59"/>
-      <c r="CF20" s="59"/>
-      <c r="CG20" s="59"/>
-      <c r="CH20" s="59"/>
-      <c r="CI20" s="59"/>
-      <c r="CJ20" s="59"/>
-      <c r="CK20" s="59"/>
-      <c r="CL20" s="59"/>
-      <c r="CM20" s="59"/>
-      <c r="CN20" s="59"/>
-      <c r="CO20" s="59"/>
-      <c r="CP20" s="59"/>
-      <c r="CQ20" s="59"/>
-      <c r="CR20" s="59"/>
-      <c r="CS20" s="59"/>
-      <c r="CT20" s="59"/>
-      <c r="CU20" s="59"/>
-      <c r="CV20" s="59"/>
-      <c r="CW20" s="59"/>
-      <c r="CX20" s="59"/>
-      <c r="CY20" s="59"/>
-      <c r="CZ20" s="59"/>
-      <c r="DA20" s="59"/>
-      <c r="DB20" s="59"/>
-      <c r="DC20" s="59"/>
-      <c r="DD20" s="59"/>
-      <c r="DE20" s="59"/>
-      <c r="DF20" s="59"/>
+      <c r="H20" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="58"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="58"/>
+      <c r="AO20" s="58"/>
+      <c r="AP20" s="58"/>
+      <c r="AQ20" s="58"/>
+      <c r="AR20" s="58"/>
+      <c r="AS20" s="58"/>
+      <c r="AT20" s="58"/>
+      <c r="AU20" s="58"/>
+      <c r="AV20" s="58"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="58"/>
+      <c r="AZ20" s="58"/>
+      <c r="BA20" s="58"/>
+      <c r="BB20" s="58"/>
+      <c r="BC20" s="58"/>
+      <c r="BD20" s="58"/>
+      <c r="BE20" s="58"/>
+      <c r="BF20" s="58"/>
+      <c r="BG20" s="58"/>
+      <c r="BH20" s="58"/>
+      <c r="BI20" s="58"/>
+      <c r="BJ20" s="58"/>
+      <c r="BK20" s="58"/>
+      <c r="BL20" s="58"/>
+      <c r="BM20" s="58"/>
+      <c r="BN20" s="58"/>
+      <c r="BO20" s="58"/>
+      <c r="BP20" s="58"/>
+      <c r="BQ20" s="58"/>
+      <c r="BR20" s="58"/>
+      <c r="BS20" s="58"/>
+      <c r="BT20" s="58"/>
+      <c r="BU20" s="58"/>
+      <c r="BV20" s="58"/>
+      <c r="BW20" s="58"/>
+      <c r="BX20" s="58"/>
+      <c r="BY20" s="58"/>
+      <c r="BZ20" s="58"/>
+      <c r="CA20" s="58"/>
+      <c r="CB20" s="58"/>
+      <c r="CC20" s="58"/>
+      <c r="CD20" s="58"/>
+      <c r="CE20" s="58"/>
+      <c r="CF20" s="58"/>
+      <c r="CG20" s="58"/>
+      <c r="CH20" s="58"/>
+      <c r="CI20" s="58"/>
+      <c r="CJ20" s="58"/>
+      <c r="CK20" s="58"/>
+      <c r="CL20" s="58"/>
+      <c r="CM20" s="58"/>
+      <c r="CN20" s="58"/>
+      <c r="CO20" s="58"/>
+      <c r="CP20" s="58"/>
+      <c r="CQ20" s="58"/>
+      <c r="CR20" s="58"/>
+      <c r="CS20" s="58"/>
+      <c r="CT20" s="58"/>
+      <c r="CU20" s="58"/>
+      <c r="CV20" s="58"/>
+      <c r="CW20" s="58"/>
+      <c r="CX20" s="58"/>
+      <c r="CY20" s="58"/>
+      <c r="CZ20" s="58"/>
+      <c r="DA20" s="58"/>
+      <c r="DB20" s="58"/>
+      <c r="DC20" s="58"/>
+      <c r="DD20" s="58"/>
+      <c r="DE20" s="58"/>
+      <c r="DF20" s="58"/>
     </row>
     <row r="21" spans="1:110" ht="135" customHeight="1">
       <c r="A21" s="10"/>
@@ -4831,7 +4860,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="60" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="19" t="s">
@@ -4843,109 +4872,109 @@
       <c r="G21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="59"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="59"/>
-      <c r="AX21" s="59"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="59"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="59"/>
-      <c r="BC21" s="59"/>
-      <c r="BD21" s="59"/>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="59"/>
-      <c r="BJ21" s="59"/>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="59"/>
-      <c r="BM21" s="59"/>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="59"/>
-      <c r="BP21" s="59"/>
-      <c r="BQ21" s="59"/>
-      <c r="BR21" s="59"/>
-      <c r="BS21" s="59"/>
-      <c r="BT21" s="59"/>
-      <c r="BU21" s="59"/>
-      <c r="BV21" s="59"/>
-      <c r="BW21" s="59"/>
-      <c r="BX21" s="59"/>
-      <c r="BY21" s="59"/>
-      <c r="BZ21" s="59"/>
-      <c r="CA21" s="59"/>
-      <c r="CB21" s="59"/>
-      <c r="CC21" s="59"/>
-      <c r="CD21" s="59"/>
-      <c r="CE21" s="59"/>
-      <c r="CF21" s="59"/>
-      <c r="CG21" s="59"/>
-      <c r="CH21" s="59"/>
-      <c r="CI21" s="59"/>
-      <c r="CJ21" s="59"/>
-      <c r="CK21" s="59"/>
-      <c r="CL21" s="59"/>
-      <c r="CM21" s="59"/>
-      <c r="CN21" s="59"/>
-      <c r="CO21" s="59"/>
-      <c r="CP21" s="59"/>
-      <c r="CQ21" s="59"/>
-      <c r="CR21" s="59"/>
-      <c r="CS21" s="59"/>
-      <c r="CT21" s="59"/>
-      <c r="CU21" s="59"/>
-      <c r="CV21" s="59"/>
-      <c r="CW21" s="59"/>
-      <c r="CX21" s="59"/>
-      <c r="CY21" s="59"/>
-      <c r="CZ21" s="59"/>
-      <c r="DA21" s="59"/>
-      <c r="DB21" s="59"/>
-      <c r="DC21" s="59"/>
-      <c r="DD21" s="59"/>
-      <c r="DE21" s="59"/>
-      <c r="DF21" s="59"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="58"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="58"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="58"/>
+      <c r="AQ21" s="58"/>
+      <c r="AR21" s="58"/>
+      <c r="AS21" s="58"/>
+      <c r="AT21" s="58"/>
+      <c r="AU21" s="58"/>
+      <c r="AV21" s="58"/>
+      <c r="AW21" s="58"/>
+      <c r="AX21" s="58"/>
+      <c r="AY21" s="58"/>
+      <c r="AZ21" s="58"/>
+      <c r="BA21" s="58"/>
+      <c r="BB21" s="58"/>
+      <c r="BC21" s="58"/>
+      <c r="BD21" s="58"/>
+      <c r="BE21" s="58"/>
+      <c r="BF21" s="58"/>
+      <c r="BG21" s="58"/>
+      <c r="BH21" s="58"/>
+      <c r="BI21" s="58"/>
+      <c r="BJ21" s="58"/>
+      <c r="BK21" s="58"/>
+      <c r="BL21" s="58"/>
+      <c r="BM21" s="58"/>
+      <c r="BN21" s="58"/>
+      <c r="BO21" s="58"/>
+      <c r="BP21" s="58"/>
+      <c r="BQ21" s="58"/>
+      <c r="BR21" s="58"/>
+      <c r="BS21" s="58"/>
+      <c r="BT21" s="58"/>
+      <c r="BU21" s="58"/>
+      <c r="BV21" s="58"/>
+      <c r="BW21" s="58"/>
+      <c r="BX21" s="58"/>
+      <c r="BY21" s="58"/>
+      <c r="BZ21" s="58"/>
+      <c r="CA21" s="58"/>
+      <c r="CB21" s="58"/>
+      <c r="CC21" s="58"/>
+      <c r="CD21" s="58"/>
+      <c r="CE21" s="58"/>
+      <c r="CF21" s="58"/>
+      <c r="CG21" s="58"/>
+      <c r="CH21" s="58"/>
+      <c r="CI21" s="58"/>
+      <c r="CJ21" s="58"/>
+      <c r="CK21" s="58"/>
+      <c r="CL21" s="58"/>
+      <c r="CM21" s="58"/>
+      <c r="CN21" s="58"/>
+      <c r="CO21" s="58"/>
+      <c r="CP21" s="58"/>
+      <c r="CQ21" s="58"/>
+      <c r="CR21" s="58"/>
+      <c r="CS21" s="58"/>
+      <c r="CT21" s="58"/>
+      <c r="CU21" s="58"/>
+      <c r="CV21" s="58"/>
+      <c r="CW21" s="58"/>
+      <c r="CX21" s="58"/>
+      <c r="CY21" s="58"/>
+      <c r="CZ21" s="58"/>
+      <c r="DA21" s="58"/>
+      <c r="DB21" s="58"/>
+      <c r="DC21" s="58"/>
+      <c r="DD21" s="58"/>
+      <c r="DE21" s="58"/>
+      <c r="DF21" s="58"/>
     </row>
     <row r="22" spans="1:110" ht="195">
       <c r="A22" s="10"/>
@@ -4953,7 +4982,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="60" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="19" t="s">
@@ -4965,109 +4994,109 @@
       <c r="G22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="59"/>
-      <c r="AU22" s="59"/>
-      <c r="AV22" s="59"/>
-      <c r="AW22" s="59"/>
-      <c r="AX22" s="59"/>
-      <c r="AY22" s="59"/>
-      <c r="AZ22" s="59"/>
-      <c r="BA22" s="59"/>
-      <c r="BB22" s="59"/>
-      <c r="BC22" s="59"/>
-      <c r="BD22" s="59"/>
-      <c r="BE22" s="59"/>
-      <c r="BF22" s="59"/>
-      <c r="BG22" s="59"/>
-      <c r="BH22" s="59"/>
-      <c r="BI22" s="59"/>
-      <c r="BJ22" s="59"/>
-      <c r="BK22" s="59"/>
-      <c r="BL22" s="59"/>
-      <c r="BM22" s="59"/>
-      <c r="BN22" s="59"/>
-      <c r="BO22" s="59"/>
-      <c r="BP22" s="59"/>
-      <c r="BQ22" s="59"/>
-      <c r="BR22" s="59"/>
-      <c r="BS22" s="59"/>
-      <c r="BT22" s="59"/>
-      <c r="BU22" s="59"/>
-      <c r="BV22" s="59"/>
-      <c r="BW22" s="59"/>
-      <c r="BX22" s="59"/>
-      <c r="BY22" s="59"/>
-      <c r="BZ22" s="59"/>
-      <c r="CA22" s="59"/>
-      <c r="CB22" s="59"/>
-      <c r="CC22" s="59"/>
-      <c r="CD22" s="59"/>
-      <c r="CE22" s="59"/>
-      <c r="CF22" s="59"/>
-      <c r="CG22" s="59"/>
-      <c r="CH22" s="59"/>
-      <c r="CI22" s="59"/>
-      <c r="CJ22" s="59"/>
-      <c r="CK22" s="59"/>
-      <c r="CL22" s="59"/>
-      <c r="CM22" s="59"/>
-      <c r="CN22" s="59"/>
-      <c r="CO22" s="59"/>
-      <c r="CP22" s="59"/>
-      <c r="CQ22" s="59"/>
-      <c r="CR22" s="59"/>
-      <c r="CS22" s="59"/>
-      <c r="CT22" s="59"/>
-      <c r="CU22" s="59"/>
-      <c r="CV22" s="59"/>
-      <c r="CW22" s="59"/>
-      <c r="CX22" s="59"/>
-      <c r="CY22" s="59"/>
-      <c r="CZ22" s="59"/>
-      <c r="DA22" s="59"/>
-      <c r="DB22" s="59"/>
-      <c r="DC22" s="59"/>
-      <c r="DD22" s="59"/>
-      <c r="DE22" s="59"/>
-      <c r="DF22" s="59"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="58"/>
+      <c r="AP22" s="58"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="58"/>
+      <c r="AS22" s="58"/>
+      <c r="AT22" s="58"/>
+      <c r="AU22" s="58"/>
+      <c r="AV22" s="58"/>
+      <c r="AW22" s="58"/>
+      <c r="AX22" s="58"/>
+      <c r="AY22" s="58"/>
+      <c r="AZ22" s="58"/>
+      <c r="BA22" s="58"/>
+      <c r="BB22" s="58"/>
+      <c r="BC22" s="58"/>
+      <c r="BD22" s="58"/>
+      <c r="BE22" s="58"/>
+      <c r="BF22" s="58"/>
+      <c r="BG22" s="58"/>
+      <c r="BH22" s="58"/>
+      <c r="BI22" s="58"/>
+      <c r="BJ22" s="58"/>
+      <c r="BK22" s="58"/>
+      <c r="BL22" s="58"/>
+      <c r="BM22" s="58"/>
+      <c r="BN22" s="58"/>
+      <c r="BO22" s="58"/>
+      <c r="BP22" s="58"/>
+      <c r="BQ22" s="58"/>
+      <c r="BR22" s="58"/>
+      <c r="BS22" s="58"/>
+      <c r="BT22" s="58"/>
+      <c r="BU22" s="58"/>
+      <c r="BV22" s="58"/>
+      <c r="BW22" s="58"/>
+      <c r="BX22" s="58"/>
+      <c r="BY22" s="58"/>
+      <c r="BZ22" s="58"/>
+      <c r="CA22" s="58"/>
+      <c r="CB22" s="58"/>
+      <c r="CC22" s="58"/>
+      <c r="CD22" s="58"/>
+      <c r="CE22" s="58"/>
+      <c r="CF22" s="58"/>
+      <c r="CG22" s="58"/>
+      <c r="CH22" s="58"/>
+      <c r="CI22" s="58"/>
+      <c r="CJ22" s="58"/>
+      <c r="CK22" s="58"/>
+      <c r="CL22" s="58"/>
+      <c r="CM22" s="58"/>
+      <c r="CN22" s="58"/>
+      <c r="CO22" s="58"/>
+      <c r="CP22" s="58"/>
+      <c r="CQ22" s="58"/>
+      <c r="CR22" s="58"/>
+      <c r="CS22" s="58"/>
+      <c r="CT22" s="58"/>
+      <c r="CU22" s="58"/>
+      <c r="CV22" s="58"/>
+      <c r="CW22" s="58"/>
+      <c r="CX22" s="58"/>
+      <c r="CY22" s="58"/>
+      <c r="CZ22" s="58"/>
+      <c r="DA22" s="58"/>
+      <c r="DB22" s="58"/>
+      <c r="DC22" s="58"/>
+      <c r="DD22" s="58"/>
+      <c r="DE22" s="58"/>
+      <c r="DF22" s="58"/>
     </row>
     <row r="23" spans="1:110" ht="150">
       <c r="A23" s="10"/>
@@ -5085,109 +5114,109 @@
         <v>61</v>
       </c>
       <c r="G23" s="19"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="59"/>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="59"/>
-      <c r="AR23" s="59"/>
-      <c r="AS23" s="59"/>
-      <c r="AT23" s="59"/>
-      <c r="AU23" s="59"/>
-      <c r="AV23" s="59"/>
-      <c r="AW23" s="59"/>
-      <c r="AX23" s="59"/>
-      <c r="AY23" s="59"/>
-      <c r="AZ23" s="59"/>
-      <c r="BA23" s="59"/>
-      <c r="BB23" s="59"/>
-      <c r="BC23" s="59"/>
-      <c r="BD23" s="59"/>
-      <c r="BE23" s="59"/>
-      <c r="BF23" s="59"/>
-      <c r="BG23" s="59"/>
-      <c r="BH23" s="59"/>
-      <c r="BI23" s="59"/>
-      <c r="BJ23" s="59"/>
-      <c r="BK23" s="59"/>
-      <c r="BL23" s="59"/>
-      <c r="BM23" s="59"/>
-      <c r="BN23" s="59"/>
-      <c r="BO23" s="59"/>
-      <c r="BP23" s="59"/>
-      <c r="BQ23" s="59"/>
-      <c r="BR23" s="59"/>
-      <c r="BS23" s="59"/>
-      <c r="BT23" s="59"/>
-      <c r="BU23" s="59"/>
-      <c r="BV23" s="59"/>
-      <c r="BW23" s="59"/>
-      <c r="BX23" s="59"/>
-      <c r="BY23" s="59"/>
-      <c r="BZ23" s="59"/>
-      <c r="CA23" s="59"/>
-      <c r="CB23" s="59"/>
-      <c r="CC23" s="59"/>
-      <c r="CD23" s="59"/>
-      <c r="CE23" s="59"/>
-      <c r="CF23" s="59"/>
-      <c r="CG23" s="59"/>
-      <c r="CH23" s="59"/>
-      <c r="CI23" s="59"/>
-      <c r="CJ23" s="59"/>
-      <c r="CK23" s="59"/>
-      <c r="CL23" s="59"/>
-      <c r="CM23" s="59"/>
-      <c r="CN23" s="59"/>
-      <c r="CO23" s="59"/>
-      <c r="CP23" s="59"/>
-      <c r="CQ23" s="59"/>
-      <c r="CR23" s="59"/>
-      <c r="CS23" s="59"/>
-      <c r="CT23" s="59"/>
-      <c r="CU23" s="59"/>
-      <c r="CV23" s="59"/>
-      <c r="CW23" s="59"/>
-      <c r="CX23" s="59"/>
-      <c r="CY23" s="59"/>
-      <c r="CZ23" s="59"/>
-      <c r="DA23" s="59"/>
-      <c r="DB23" s="59"/>
-      <c r="DC23" s="59"/>
-      <c r="DD23" s="59"/>
-      <c r="DE23" s="59"/>
-      <c r="DF23" s="59"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="58"/>
+      <c r="AL23" s="58"/>
+      <c r="AM23" s="58"/>
+      <c r="AN23" s="58"/>
+      <c r="AO23" s="58"/>
+      <c r="AP23" s="58"/>
+      <c r="AQ23" s="58"/>
+      <c r="AR23" s="58"/>
+      <c r="AS23" s="58"/>
+      <c r="AT23" s="58"/>
+      <c r="AU23" s="58"/>
+      <c r="AV23" s="58"/>
+      <c r="AW23" s="58"/>
+      <c r="AX23" s="58"/>
+      <c r="AY23" s="58"/>
+      <c r="AZ23" s="58"/>
+      <c r="BA23" s="58"/>
+      <c r="BB23" s="58"/>
+      <c r="BC23" s="58"/>
+      <c r="BD23" s="58"/>
+      <c r="BE23" s="58"/>
+      <c r="BF23" s="58"/>
+      <c r="BG23" s="58"/>
+      <c r="BH23" s="58"/>
+      <c r="BI23" s="58"/>
+      <c r="BJ23" s="58"/>
+      <c r="BK23" s="58"/>
+      <c r="BL23" s="58"/>
+      <c r="BM23" s="58"/>
+      <c r="BN23" s="58"/>
+      <c r="BO23" s="58"/>
+      <c r="BP23" s="58"/>
+      <c r="BQ23" s="58"/>
+      <c r="BR23" s="58"/>
+      <c r="BS23" s="58"/>
+      <c r="BT23" s="58"/>
+      <c r="BU23" s="58"/>
+      <c r="BV23" s="58"/>
+      <c r="BW23" s="58"/>
+      <c r="BX23" s="58"/>
+      <c r="BY23" s="58"/>
+      <c r="BZ23" s="58"/>
+      <c r="CA23" s="58"/>
+      <c r="CB23" s="58"/>
+      <c r="CC23" s="58"/>
+      <c r="CD23" s="58"/>
+      <c r="CE23" s="58"/>
+      <c r="CF23" s="58"/>
+      <c r="CG23" s="58"/>
+      <c r="CH23" s="58"/>
+      <c r="CI23" s="58"/>
+      <c r="CJ23" s="58"/>
+      <c r="CK23" s="58"/>
+      <c r="CL23" s="58"/>
+      <c r="CM23" s="58"/>
+      <c r="CN23" s="58"/>
+      <c r="CO23" s="58"/>
+      <c r="CP23" s="58"/>
+      <c r="CQ23" s="58"/>
+      <c r="CR23" s="58"/>
+      <c r="CS23" s="58"/>
+      <c r="CT23" s="58"/>
+      <c r="CU23" s="58"/>
+      <c r="CV23" s="58"/>
+      <c r="CW23" s="58"/>
+      <c r="CX23" s="58"/>
+      <c r="CY23" s="58"/>
+      <c r="CZ23" s="58"/>
+      <c r="DA23" s="58"/>
+      <c r="DB23" s="58"/>
+      <c r="DC23" s="58"/>
+      <c r="DD23" s="58"/>
+      <c r="DE23" s="58"/>
+      <c r="DF23" s="58"/>
     </row>
     <row r="24" spans="1:110" ht="135">
       <c r="A24" s="10"/>
@@ -5198,116 +5227,116 @@
       <c r="D24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="54" t="s">
         <v>67</v>
       </c>
       <c r="G24" s="19"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="59"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="59"/>
-      <c r="AV24" s="59"/>
-      <c r="AW24" s="59"/>
-      <c r="AX24" s="59"/>
-      <c r="AY24" s="59"/>
-      <c r="AZ24" s="59"/>
-      <c r="BA24" s="59"/>
-      <c r="BB24" s="59"/>
-      <c r="BC24" s="59"/>
-      <c r="BD24" s="59"/>
-      <c r="BE24" s="59"/>
-      <c r="BF24" s="59"/>
-      <c r="BG24" s="59"/>
-      <c r="BH24" s="59"/>
-      <c r="BI24" s="59"/>
-      <c r="BJ24" s="59"/>
-      <c r="BK24" s="59"/>
-      <c r="BL24" s="59"/>
-      <c r="BM24" s="59"/>
-      <c r="BN24" s="59"/>
-      <c r="BO24" s="59"/>
-      <c r="BP24" s="59"/>
-      <c r="BQ24" s="59"/>
-      <c r="BR24" s="59"/>
-      <c r="BS24" s="59"/>
-      <c r="BT24" s="59"/>
-      <c r="BU24" s="59"/>
-      <c r="BV24" s="59"/>
-      <c r="BW24" s="59"/>
-      <c r="BX24" s="59"/>
-      <c r="BY24" s="59"/>
-      <c r="BZ24" s="59"/>
-      <c r="CA24" s="59"/>
-      <c r="CB24" s="59"/>
-      <c r="CC24" s="59"/>
-      <c r="CD24" s="59"/>
-      <c r="CE24" s="59"/>
-      <c r="CF24" s="59"/>
-      <c r="CG24" s="59"/>
-      <c r="CH24" s="59"/>
-      <c r="CI24" s="59"/>
-      <c r="CJ24" s="59"/>
-      <c r="CK24" s="59"/>
-      <c r="CL24" s="59"/>
-      <c r="CM24" s="59"/>
-      <c r="CN24" s="59"/>
-      <c r="CO24" s="59"/>
-      <c r="CP24" s="59"/>
-      <c r="CQ24" s="59"/>
-      <c r="CR24" s="59"/>
-      <c r="CS24" s="59"/>
-      <c r="CT24" s="59"/>
-      <c r="CU24" s="59"/>
-      <c r="CV24" s="59"/>
-      <c r="CW24" s="59"/>
-      <c r="CX24" s="59"/>
-      <c r="CY24" s="59"/>
-      <c r="CZ24" s="59"/>
-      <c r="DA24" s="59"/>
-      <c r="DB24" s="59"/>
-      <c r="DC24" s="59"/>
-      <c r="DD24" s="59"/>
-      <c r="DE24" s="59"/>
-      <c r="DF24" s="59"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="58"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="58"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="58"/>
+      <c r="AK24" s="58"/>
+      <c r="AL24" s="58"/>
+      <c r="AM24" s="58"/>
+      <c r="AN24" s="58"/>
+      <c r="AO24" s="58"/>
+      <c r="AP24" s="58"/>
+      <c r="AQ24" s="58"/>
+      <c r="AR24" s="58"/>
+      <c r="AS24" s="58"/>
+      <c r="AT24" s="58"/>
+      <c r="AU24" s="58"/>
+      <c r="AV24" s="58"/>
+      <c r="AW24" s="58"/>
+      <c r="AX24" s="58"/>
+      <c r="AY24" s="58"/>
+      <c r="AZ24" s="58"/>
+      <c r="BA24" s="58"/>
+      <c r="BB24" s="58"/>
+      <c r="BC24" s="58"/>
+      <c r="BD24" s="58"/>
+      <c r="BE24" s="58"/>
+      <c r="BF24" s="58"/>
+      <c r="BG24" s="58"/>
+      <c r="BH24" s="58"/>
+      <c r="BI24" s="58"/>
+      <c r="BJ24" s="58"/>
+      <c r="BK24" s="58"/>
+      <c r="BL24" s="58"/>
+      <c r="BM24" s="58"/>
+      <c r="BN24" s="58"/>
+      <c r="BO24" s="58"/>
+      <c r="BP24" s="58"/>
+      <c r="BQ24" s="58"/>
+      <c r="BR24" s="58"/>
+      <c r="BS24" s="58"/>
+      <c r="BT24" s="58"/>
+      <c r="BU24" s="58"/>
+      <c r="BV24" s="58"/>
+      <c r="BW24" s="58"/>
+      <c r="BX24" s="58"/>
+      <c r="BY24" s="58"/>
+      <c r="BZ24" s="58"/>
+      <c r="CA24" s="58"/>
+      <c r="CB24" s="58"/>
+      <c r="CC24" s="58"/>
+      <c r="CD24" s="58"/>
+      <c r="CE24" s="58"/>
+      <c r="CF24" s="58"/>
+      <c r="CG24" s="58"/>
+      <c r="CH24" s="58"/>
+      <c r="CI24" s="58"/>
+      <c r="CJ24" s="58"/>
+      <c r="CK24" s="58"/>
+      <c r="CL24" s="58"/>
+      <c r="CM24" s="58"/>
+      <c r="CN24" s="58"/>
+      <c r="CO24" s="58"/>
+      <c r="CP24" s="58"/>
+      <c r="CQ24" s="58"/>
+      <c r="CR24" s="58"/>
+      <c r="CS24" s="58"/>
+      <c r="CT24" s="58"/>
+      <c r="CU24" s="58"/>
+      <c r="CV24" s="58"/>
+      <c r="CW24" s="58"/>
+      <c r="CX24" s="58"/>
+      <c r="CY24" s="58"/>
+      <c r="CZ24" s="58"/>
+      <c r="DA24" s="58"/>
+      <c r="DB24" s="58"/>
+      <c r="DC24" s="58"/>
+      <c r="DD24" s="58"/>
+      <c r="DE24" s="58"/>
+      <c r="DF24" s="58"/>
     </row>
     <row r="25" spans="1:110" ht="135">
       <c r="A25" s="10"/>
@@ -5325,109 +5354,109 @@
         <v>107</v>
       </c>
       <c r="G25" s="19"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="59"/>
-      <c r="AU25" s="59"/>
-      <c r="AV25" s="59"/>
-      <c r="AW25" s="59"/>
-      <c r="AX25" s="59"/>
-      <c r="AY25" s="59"/>
-      <c r="AZ25" s="59"/>
-      <c r="BA25" s="59"/>
-      <c r="BB25" s="59"/>
-      <c r="BC25" s="59"/>
-      <c r="BD25" s="59"/>
-      <c r="BE25" s="59"/>
-      <c r="BF25" s="59"/>
-      <c r="BG25" s="59"/>
-      <c r="BH25" s="59"/>
-      <c r="BI25" s="59"/>
-      <c r="BJ25" s="59"/>
-      <c r="BK25" s="59"/>
-      <c r="BL25" s="59"/>
-      <c r="BM25" s="59"/>
-      <c r="BN25" s="59"/>
-      <c r="BO25" s="59"/>
-      <c r="BP25" s="59"/>
-      <c r="BQ25" s="59"/>
-      <c r="BR25" s="59"/>
-      <c r="BS25" s="59"/>
-      <c r="BT25" s="59"/>
-      <c r="BU25" s="59"/>
-      <c r="BV25" s="59"/>
-      <c r="BW25" s="59"/>
-      <c r="BX25" s="59"/>
-      <c r="BY25" s="59"/>
-      <c r="BZ25" s="59"/>
-      <c r="CA25" s="59"/>
-      <c r="CB25" s="59"/>
-      <c r="CC25" s="59"/>
-      <c r="CD25" s="59"/>
-      <c r="CE25" s="59"/>
-      <c r="CF25" s="59"/>
-      <c r="CG25" s="59"/>
-      <c r="CH25" s="59"/>
-      <c r="CI25" s="59"/>
-      <c r="CJ25" s="59"/>
-      <c r="CK25" s="59"/>
-      <c r="CL25" s="59"/>
-      <c r="CM25" s="59"/>
-      <c r="CN25" s="59"/>
-      <c r="CO25" s="59"/>
-      <c r="CP25" s="59"/>
-      <c r="CQ25" s="59"/>
-      <c r="CR25" s="59"/>
-      <c r="CS25" s="59"/>
-      <c r="CT25" s="59"/>
-      <c r="CU25" s="59"/>
-      <c r="CV25" s="59"/>
-      <c r="CW25" s="59"/>
-      <c r="CX25" s="59"/>
-      <c r="CY25" s="59"/>
-      <c r="CZ25" s="59"/>
-      <c r="DA25" s="59"/>
-      <c r="DB25" s="59"/>
-      <c r="DC25" s="59"/>
-      <c r="DD25" s="59"/>
-      <c r="DE25" s="59"/>
-      <c r="DF25" s="59"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="58"/>
+      <c r="AJ25" s="58"/>
+      <c r="AK25" s="58"/>
+      <c r="AL25" s="58"/>
+      <c r="AM25" s="58"/>
+      <c r="AN25" s="58"/>
+      <c r="AO25" s="58"/>
+      <c r="AP25" s="58"/>
+      <c r="AQ25" s="58"/>
+      <c r="AR25" s="58"/>
+      <c r="AS25" s="58"/>
+      <c r="AT25" s="58"/>
+      <c r="AU25" s="58"/>
+      <c r="AV25" s="58"/>
+      <c r="AW25" s="58"/>
+      <c r="AX25" s="58"/>
+      <c r="AY25" s="58"/>
+      <c r="AZ25" s="58"/>
+      <c r="BA25" s="58"/>
+      <c r="BB25" s="58"/>
+      <c r="BC25" s="58"/>
+      <c r="BD25" s="58"/>
+      <c r="BE25" s="58"/>
+      <c r="BF25" s="58"/>
+      <c r="BG25" s="58"/>
+      <c r="BH25" s="58"/>
+      <c r="BI25" s="58"/>
+      <c r="BJ25" s="58"/>
+      <c r="BK25" s="58"/>
+      <c r="BL25" s="58"/>
+      <c r="BM25" s="58"/>
+      <c r="BN25" s="58"/>
+      <c r="BO25" s="58"/>
+      <c r="BP25" s="58"/>
+      <c r="BQ25" s="58"/>
+      <c r="BR25" s="58"/>
+      <c r="BS25" s="58"/>
+      <c r="BT25" s="58"/>
+      <c r="BU25" s="58"/>
+      <c r="BV25" s="58"/>
+      <c r="BW25" s="58"/>
+      <c r="BX25" s="58"/>
+      <c r="BY25" s="58"/>
+      <c r="BZ25" s="58"/>
+      <c r="CA25" s="58"/>
+      <c r="CB25" s="58"/>
+      <c r="CC25" s="58"/>
+      <c r="CD25" s="58"/>
+      <c r="CE25" s="58"/>
+      <c r="CF25" s="58"/>
+      <c r="CG25" s="58"/>
+      <c r="CH25" s="58"/>
+      <c r="CI25" s="58"/>
+      <c r="CJ25" s="58"/>
+      <c r="CK25" s="58"/>
+      <c r="CL25" s="58"/>
+      <c r="CM25" s="58"/>
+      <c r="CN25" s="58"/>
+      <c r="CO25" s="58"/>
+      <c r="CP25" s="58"/>
+      <c r="CQ25" s="58"/>
+      <c r="CR25" s="58"/>
+      <c r="CS25" s="58"/>
+      <c r="CT25" s="58"/>
+      <c r="CU25" s="58"/>
+      <c r="CV25" s="58"/>
+      <c r="CW25" s="58"/>
+      <c r="CX25" s="58"/>
+      <c r="CY25" s="58"/>
+      <c r="CZ25" s="58"/>
+      <c r="DA25" s="58"/>
+      <c r="DB25" s="58"/>
+      <c r="DC25" s="58"/>
+      <c r="DD25" s="58"/>
+      <c r="DE25" s="58"/>
+      <c r="DF25" s="58"/>
     </row>
     <row r="26" spans="1:110" ht="135">
       <c r="A26" s="10"/>
@@ -5441,113 +5470,113 @@
       <c r="E26" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="54" t="s">
         <v>70</v>
       </c>
       <c r="G26" s="19"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="59"/>
-      <c r="AV26" s="59"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
-      <c r="BC26" s="59"/>
-      <c r="BD26" s="59"/>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="59"/>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="59"/>
-      <c r="BM26" s="59"/>
-      <c r="BN26" s="59"/>
-      <c r="BO26" s="59"/>
-      <c r="BP26" s="59"/>
-      <c r="BQ26" s="59"/>
-      <c r="BR26" s="59"/>
-      <c r="BS26" s="59"/>
-      <c r="BT26" s="59"/>
-      <c r="BU26" s="59"/>
-      <c r="BV26" s="59"/>
-      <c r="BW26" s="59"/>
-      <c r="BX26" s="59"/>
-      <c r="BY26" s="59"/>
-      <c r="BZ26" s="59"/>
-      <c r="CA26" s="59"/>
-      <c r="CB26" s="59"/>
-      <c r="CC26" s="59"/>
-      <c r="CD26" s="59"/>
-      <c r="CE26" s="59"/>
-      <c r="CF26" s="59"/>
-      <c r="CG26" s="59"/>
-      <c r="CH26" s="59"/>
-      <c r="CI26" s="59"/>
-      <c r="CJ26" s="59"/>
-      <c r="CK26" s="59"/>
-      <c r="CL26" s="59"/>
-      <c r="CM26" s="59"/>
-      <c r="CN26" s="59"/>
-      <c r="CO26" s="59"/>
-      <c r="CP26" s="59"/>
-      <c r="CQ26" s="59"/>
-      <c r="CR26" s="59"/>
-      <c r="CS26" s="59"/>
-      <c r="CT26" s="59"/>
-      <c r="CU26" s="59"/>
-      <c r="CV26" s="59"/>
-      <c r="CW26" s="59"/>
-      <c r="CX26" s="59"/>
-      <c r="CY26" s="59"/>
-      <c r="CZ26" s="59"/>
-      <c r="DA26" s="59"/>
-      <c r="DB26" s="59"/>
-      <c r="DC26" s="59"/>
-      <c r="DD26" s="59"/>
-      <c r="DE26" s="59"/>
-      <c r="DF26" s="59"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="58"/>
+      <c r="AL26" s="58"/>
+      <c r="AM26" s="58"/>
+      <c r="AN26" s="58"/>
+      <c r="AO26" s="58"/>
+      <c r="AP26" s="58"/>
+      <c r="AQ26" s="58"/>
+      <c r="AR26" s="58"/>
+      <c r="AS26" s="58"/>
+      <c r="AT26" s="58"/>
+      <c r="AU26" s="58"/>
+      <c r="AV26" s="58"/>
+      <c r="AW26" s="58"/>
+      <c r="AX26" s="58"/>
+      <c r="AY26" s="58"/>
+      <c r="AZ26" s="58"/>
+      <c r="BA26" s="58"/>
+      <c r="BB26" s="58"/>
+      <c r="BC26" s="58"/>
+      <c r="BD26" s="58"/>
+      <c r="BE26" s="58"/>
+      <c r="BF26" s="58"/>
+      <c r="BG26" s="58"/>
+      <c r="BH26" s="58"/>
+      <c r="BI26" s="58"/>
+      <c r="BJ26" s="58"/>
+      <c r="BK26" s="58"/>
+      <c r="BL26" s="58"/>
+      <c r="BM26" s="58"/>
+      <c r="BN26" s="58"/>
+      <c r="BO26" s="58"/>
+      <c r="BP26" s="58"/>
+      <c r="BQ26" s="58"/>
+      <c r="BR26" s="58"/>
+      <c r="BS26" s="58"/>
+      <c r="BT26" s="58"/>
+      <c r="BU26" s="58"/>
+      <c r="BV26" s="58"/>
+      <c r="BW26" s="58"/>
+      <c r="BX26" s="58"/>
+      <c r="BY26" s="58"/>
+      <c r="BZ26" s="58"/>
+      <c r="CA26" s="58"/>
+      <c r="CB26" s="58"/>
+      <c r="CC26" s="58"/>
+      <c r="CD26" s="58"/>
+      <c r="CE26" s="58"/>
+      <c r="CF26" s="58"/>
+      <c r="CG26" s="58"/>
+      <c r="CH26" s="58"/>
+      <c r="CI26" s="58"/>
+      <c r="CJ26" s="58"/>
+      <c r="CK26" s="58"/>
+      <c r="CL26" s="58"/>
+      <c r="CM26" s="58"/>
+      <c r="CN26" s="58"/>
+      <c r="CO26" s="58"/>
+      <c r="CP26" s="58"/>
+      <c r="CQ26" s="58"/>
+      <c r="CR26" s="58"/>
+      <c r="CS26" s="58"/>
+      <c r="CT26" s="58"/>
+      <c r="CU26" s="58"/>
+      <c r="CV26" s="58"/>
+      <c r="CW26" s="58"/>
+      <c r="CX26" s="58"/>
+      <c r="CY26" s="58"/>
+      <c r="CZ26" s="58"/>
+      <c r="DA26" s="58"/>
+      <c r="DB26" s="58"/>
+      <c r="DC26" s="58"/>
+      <c r="DD26" s="58"/>
+      <c r="DE26" s="58"/>
+      <c r="DF26" s="58"/>
     </row>
     <row r="27" spans="1:110" ht="124.5" customHeight="1">
       <c r="A27" s="10"/>
@@ -5565,109 +5594,109 @@
         <v>65</v>
       </c>
       <c r="G27" s="19"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
-      <c r="AU27" s="59"/>
-      <c r="AV27" s="59"/>
-      <c r="AW27" s="59"/>
-      <c r="AX27" s="59"/>
-      <c r="AY27" s="59"/>
-      <c r="AZ27" s="59"/>
-      <c r="BA27" s="59"/>
-      <c r="BB27" s="59"/>
-      <c r="BC27" s="59"/>
-      <c r="BD27" s="59"/>
-      <c r="BE27" s="59"/>
-      <c r="BF27" s="59"/>
-      <c r="BG27" s="59"/>
-      <c r="BH27" s="59"/>
-      <c r="BI27" s="59"/>
-      <c r="BJ27" s="59"/>
-      <c r="BK27" s="59"/>
-      <c r="BL27" s="59"/>
-      <c r="BM27" s="59"/>
-      <c r="BN27" s="59"/>
-      <c r="BO27" s="59"/>
-      <c r="BP27" s="59"/>
-      <c r="BQ27" s="59"/>
-      <c r="BR27" s="59"/>
-      <c r="BS27" s="59"/>
-      <c r="BT27" s="59"/>
-      <c r="BU27" s="59"/>
-      <c r="BV27" s="59"/>
-      <c r="BW27" s="59"/>
-      <c r="BX27" s="59"/>
-      <c r="BY27" s="59"/>
-      <c r="BZ27" s="59"/>
-      <c r="CA27" s="59"/>
-      <c r="CB27" s="59"/>
-      <c r="CC27" s="59"/>
-      <c r="CD27" s="59"/>
-      <c r="CE27" s="59"/>
-      <c r="CF27" s="59"/>
-      <c r="CG27" s="59"/>
-      <c r="CH27" s="59"/>
-      <c r="CI27" s="59"/>
-      <c r="CJ27" s="59"/>
-      <c r="CK27" s="59"/>
-      <c r="CL27" s="59"/>
-      <c r="CM27" s="59"/>
-      <c r="CN27" s="59"/>
-      <c r="CO27" s="59"/>
-      <c r="CP27" s="59"/>
-      <c r="CQ27" s="59"/>
-      <c r="CR27" s="59"/>
-      <c r="CS27" s="59"/>
-      <c r="CT27" s="59"/>
-      <c r="CU27" s="59"/>
-      <c r="CV27" s="59"/>
-      <c r="CW27" s="59"/>
-      <c r="CX27" s="59"/>
-      <c r="CY27" s="59"/>
-      <c r="CZ27" s="59"/>
-      <c r="DA27" s="59"/>
-      <c r="DB27" s="59"/>
-      <c r="DC27" s="59"/>
-      <c r="DD27" s="59"/>
-      <c r="DE27" s="59"/>
-      <c r="DF27" s="59"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="58"/>
+      <c r="AJ27" s="58"/>
+      <c r="AK27" s="58"/>
+      <c r="AL27" s="58"/>
+      <c r="AM27" s="58"/>
+      <c r="AN27" s="58"/>
+      <c r="AO27" s="58"/>
+      <c r="AP27" s="58"/>
+      <c r="AQ27" s="58"/>
+      <c r="AR27" s="58"/>
+      <c r="AS27" s="58"/>
+      <c r="AT27" s="58"/>
+      <c r="AU27" s="58"/>
+      <c r="AV27" s="58"/>
+      <c r="AW27" s="58"/>
+      <c r="AX27" s="58"/>
+      <c r="AY27" s="58"/>
+      <c r="AZ27" s="58"/>
+      <c r="BA27" s="58"/>
+      <c r="BB27" s="58"/>
+      <c r="BC27" s="58"/>
+      <c r="BD27" s="58"/>
+      <c r="BE27" s="58"/>
+      <c r="BF27" s="58"/>
+      <c r="BG27" s="58"/>
+      <c r="BH27" s="58"/>
+      <c r="BI27" s="58"/>
+      <c r="BJ27" s="58"/>
+      <c r="BK27" s="58"/>
+      <c r="BL27" s="58"/>
+      <c r="BM27" s="58"/>
+      <c r="BN27" s="58"/>
+      <c r="BO27" s="58"/>
+      <c r="BP27" s="58"/>
+      <c r="BQ27" s="58"/>
+      <c r="BR27" s="58"/>
+      <c r="BS27" s="58"/>
+      <c r="BT27" s="58"/>
+      <c r="BU27" s="58"/>
+      <c r="BV27" s="58"/>
+      <c r="BW27" s="58"/>
+      <c r="BX27" s="58"/>
+      <c r="BY27" s="58"/>
+      <c r="BZ27" s="58"/>
+      <c r="CA27" s="58"/>
+      <c r="CB27" s="58"/>
+      <c r="CC27" s="58"/>
+      <c r="CD27" s="58"/>
+      <c r="CE27" s="58"/>
+      <c r="CF27" s="58"/>
+      <c r="CG27" s="58"/>
+      <c r="CH27" s="58"/>
+      <c r="CI27" s="58"/>
+      <c r="CJ27" s="58"/>
+      <c r="CK27" s="58"/>
+      <c r="CL27" s="58"/>
+      <c r="CM27" s="58"/>
+      <c r="CN27" s="58"/>
+      <c r="CO27" s="58"/>
+      <c r="CP27" s="58"/>
+      <c r="CQ27" s="58"/>
+      <c r="CR27" s="58"/>
+      <c r="CS27" s="58"/>
+      <c r="CT27" s="58"/>
+      <c r="CU27" s="58"/>
+      <c r="CV27" s="58"/>
+      <c r="CW27" s="58"/>
+      <c r="CX27" s="58"/>
+      <c r="CY27" s="58"/>
+      <c r="CZ27" s="58"/>
+      <c r="DA27" s="58"/>
+      <c r="DB27" s="58"/>
+      <c r="DC27" s="58"/>
+      <c r="DD27" s="58"/>
+      <c r="DE27" s="58"/>
+      <c r="DF27" s="58"/>
     </row>
     <row r="28" spans="1:110" ht="120" customHeight="1">
       <c r="A28" s="10"/>
@@ -5685,109 +5714,109 @@
         <v>31</v>
       </c>
       <c r="G28" s="19"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="36"/>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="36"/>
-      <c r="AY28" s="36"/>
-      <c r="AZ28" s="36"/>
-      <c r="BA28" s="36"/>
-      <c r="BB28" s="36"/>
-      <c r="BC28" s="36"/>
-      <c r="BD28" s="36"/>
-      <c r="BE28" s="36"/>
-      <c r="BF28" s="36"/>
-      <c r="BG28" s="36"/>
-      <c r="BH28" s="36"/>
-      <c r="BI28" s="36"/>
-      <c r="BJ28" s="36"/>
-      <c r="BK28" s="36"/>
-      <c r="BL28" s="36"/>
-      <c r="BM28" s="36"/>
-      <c r="BN28" s="36"/>
-      <c r="BO28" s="36"/>
-      <c r="BP28" s="36"/>
-      <c r="BQ28" s="36"/>
-      <c r="BR28" s="36"/>
-      <c r="BS28" s="36"/>
-      <c r="BT28" s="36"/>
-      <c r="BU28" s="36"/>
-      <c r="BV28" s="36"/>
-      <c r="BW28" s="36"/>
-      <c r="BX28" s="36"/>
-      <c r="BY28" s="36"/>
-      <c r="BZ28" s="36"/>
-      <c r="CA28" s="36"/>
-      <c r="CB28" s="36"/>
-      <c r="CC28" s="36"/>
-      <c r="CD28" s="36"/>
-      <c r="CE28" s="36"/>
-      <c r="CF28" s="36"/>
-      <c r="CG28" s="36"/>
-      <c r="CH28" s="36"/>
-      <c r="CI28" s="36"/>
-      <c r="CJ28" s="36"/>
-      <c r="CK28" s="36"/>
-      <c r="CL28" s="36"/>
-      <c r="CM28" s="36"/>
-      <c r="CN28" s="36"/>
-      <c r="CO28" s="36"/>
-      <c r="CP28" s="36"/>
-      <c r="CQ28" s="36"/>
-      <c r="CR28" s="36"/>
-      <c r="CS28" s="36"/>
-      <c r="CT28" s="36"/>
-      <c r="CU28" s="36"/>
-      <c r="CV28" s="36"/>
-      <c r="CW28" s="36"/>
-      <c r="CX28" s="36"/>
-      <c r="CY28" s="36"/>
-      <c r="CZ28" s="36"/>
-      <c r="DA28" s="36"/>
-      <c r="DB28" s="36"/>
-      <c r="DC28" s="36"/>
-      <c r="DD28" s="36"/>
-      <c r="DE28" s="36"/>
-      <c r="DF28" s="36"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="35"/>
+      <c r="AL28" s="35"/>
+      <c r="AM28" s="35"/>
+      <c r="AN28" s="35"/>
+      <c r="AO28" s="35"/>
+      <c r="AP28" s="35"/>
+      <c r="AQ28" s="35"/>
+      <c r="AR28" s="35"/>
+      <c r="AS28" s="35"/>
+      <c r="AT28" s="35"/>
+      <c r="AU28" s="35"/>
+      <c r="AV28" s="35"/>
+      <c r="AW28" s="35"/>
+      <c r="AX28" s="35"/>
+      <c r="AY28" s="35"/>
+      <c r="AZ28" s="35"/>
+      <c r="BA28" s="35"/>
+      <c r="BB28" s="35"/>
+      <c r="BC28" s="35"/>
+      <c r="BD28" s="35"/>
+      <c r="BE28" s="35"/>
+      <c r="BF28" s="35"/>
+      <c r="BG28" s="35"/>
+      <c r="BH28" s="35"/>
+      <c r="BI28" s="35"/>
+      <c r="BJ28" s="35"/>
+      <c r="BK28" s="35"/>
+      <c r="BL28" s="35"/>
+      <c r="BM28" s="35"/>
+      <c r="BN28" s="35"/>
+      <c r="BO28" s="35"/>
+      <c r="BP28" s="35"/>
+      <c r="BQ28" s="35"/>
+      <c r="BR28" s="35"/>
+      <c r="BS28" s="35"/>
+      <c r="BT28" s="35"/>
+      <c r="BU28" s="35"/>
+      <c r="BV28" s="35"/>
+      <c r="BW28" s="35"/>
+      <c r="BX28" s="35"/>
+      <c r="BY28" s="35"/>
+      <c r="BZ28" s="35"/>
+      <c r="CA28" s="35"/>
+      <c r="CB28" s="35"/>
+      <c r="CC28" s="35"/>
+      <c r="CD28" s="35"/>
+      <c r="CE28" s="35"/>
+      <c r="CF28" s="35"/>
+      <c r="CG28" s="35"/>
+      <c r="CH28" s="35"/>
+      <c r="CI28" s="35"/>
+      <c r="CJ28" s="35"/>
+      <c r="CK28" s="35"/>
+      <c r="CL28" s="35"/>
+      <c r="CM28" s="35"/>
+      <c r="CN28" s="35"/>
+      <c r="CO28" s="35"/>
+      <c r="CP28" s="35"/>
+      <c r="CQ28" s="35"/>
+      <c r="CR28" s="35"/>
+      <c r="CS28" s="35"/>
+      <c r="CT28" s="35"/>
+      <c r="CU28" s="35"/>
+      <c r="CV28" s="35"/>
+      <c r="CW28" s="35"/>
+      <c r="CX28" s="35"/>
+      <c r="CY28" s="35"/>
+      <c r="CZ28" s="35"/>
+      <c r="DA28" s="35"/>
+      <c r="DB28" s="35"/>
+      <c r="DC28" s="35"/>
+      <c r="DD28" s="35"/>
+      <c r="DE28" s="35"/>
+      <c r="DF28" s="35"/>
     </row>
     <row r="29" spans="1:110" ht="120" customHeight="1">
       <c r="A29" s="10"/>
@@ -5917,10 +5946,10 @@
       <c r="C30" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="54" t="s">
         <v>104</v>
       </c>
       <c r="F30" s="19" t="s">
@@ -6039,16 +6068,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="17"/>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="54" t="s">
         <v>116</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="54" t="s">
         <v>105</v>
       </c>
       <c r="H31" s="11"/>
@@ -6163,7 +6192,7 @@
       <c r="C32" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>76</v>
       </c>
       <c r="E32" s="19" t="s">
@@ -6406,13 +6435,13 @@
       <c r="D34" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="54" t="s">
         <v>83</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="54" t="s">
         <v>128</v>
       </c>
       <c r="H34" s="11"/>
@@ -6524,16 +6553,16 @@
       <c r="B35" s="13">
         <v>28</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="54" t="s">
         <v>93</v>
       </c>
       <c r="G35" s="19"/>
@@ -6647,13 +6676,13 @@
         <v>29</v>
       </c>
       <c r="C36" s="19"/>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="55" t="s">
+      <c r="F36" s="54" t="s">
         <v>93</v>
       </c>
       <c r="G36" s="19"/>
@@ -6767,13 +6796,13 @@
         <v>30</v>
       </c>
       <c r="C37" s="19"/>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="54" t="s">
         <v>93</v>
       </c>
       <c r="G37" s="19"/>
@@ -6887,13 +6916,13 @@
         <v>31</v>
       </c>
       <c r="C38" s="17"/>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="55" t="s">
+      <c r="F38" s="54" t="s">
         <v>98</v>
       </c>
       <c r="G38" s="19"/>
@@ -7007,16 +7036,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="19"/>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="54" t="s">
         <v>100</v>
       </c>
       <c r="H39" s="25"/>
@@ -7129,135 +7158,135 @@
         <v>33</v>
       </c>
       <c r="C40" s="19"/>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="55" t="s">
+      <c r="E40" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="55" t="s">
+      <c r="F40" s="54" t="s">
         <v>102</v>
       </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
-      <c r="AK40" s="36"/>
-      <c r="AL40" s="36"/>
-      <c r="AM40" s="36"/>
-      <c r="AN40" s="36"/>
-      <c r="AO40" s="36"/>
-      <c r="AP40" s="36"/>
-      <c r="AQ40" s="36"/>
-      <c r="AR40" s="36"/>
-      <c r="AS40" s="36"/>
-      <c r="AT40" s="36"/>
-      <c r="AU40" s="36"/>
-      <c r="AV40" s="36"/>
-      <c r="AW40" s="36"/>
-      <c r="AX40" s="36"/>
-      <c r="AY40" s="36"/>
-      <c r="AZ40" s="36"/>
-      <c r="BA40" s="36"/>
-      <c r="BB40" s="36"/>
-      <c r="BC40" s="36"/>
-      <c r="BD40" s="36"/>
-      <c r="BE40" s="36"/>
-      <c r="BF40" s="36"/>
-      <c r="BG40" s="36"/>
-      <c r="BH40" s="36"/>
-      <c r="BI40" s="36"/>
-      <c r="BJ40" s="36"/>
-      <c r="BK40" s="36"/>
-      <c r="BL40" s="36"/>
-      <c r="BM40" s="36"/>
-      <c r="BN40" s="36"/>
-      <c r="BO40" s="36"/>
-      <c r="BP40" s="36"/>
-      <c r="BQ40" s="36"/>
-      <c r="BR40" s="36"/>
-      <c r="BS40" s="36"/>
-      <c r="BT40" s="36"/>
-      <c r="BU40" s="36"/>
-      <c r="BV40" s="36"/>
-      <c r="BW40" s="36"/>
-      <c r="BX40" s="36"/>
-      <c r="BY40" s="36"/>
-      <c r="BZ40" s="36"/>
-      <c r="CA40" s="36"/>
-      <c r="CB40" s="36"/>
-      <c r="CC40" s="36"/>
-      <c r="CD40" s="36"/>
-      <c r="CE40" s="36"/>
-      <c r="CF40" s="36"/>
-      <c r="CG40" s="36"/>
-      <c r="CH40" s="36"/>
-      <c r="CI40" s="36"/>
-      <c r="CJ40" s="36"/>
-      <c r="CK40" s="36"/>
-      <c r="CL40" s="36"/>
-      <c r="CM40" s="36"/>
-      <c r="CN40" s="36"/>
-      <c r="CO40" s="36"/>
-      <c r="CP40" s="36"/>
-      <c r="CQ40" s="36"/>
-      <c r="CR40" s="36"/>
-      <c r="CS40" s="36"/>
-      <c r="CT40" s="36"/>
-      <c r="CU40" s="36"/>
-      <c r="CV40" s="36"/>
-      <c r="CW40" s="36"/>
-      <c r="CX40" s="36"/>
-      <c r="CY40" s="36"/>
-      <c r="CZ40" s="36"/>
-      <c r="DA40" s="36"/>
-      <c r="DB40" s="36"/>
-      <c r="DC40" s="36"/>
-      <c r="DD40" s="36"/>
-      <c r="DE40" s="36"/>
-      <c r="DF40" s="36"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="35"/>
+      <c r="AL40" s="35"/>
+      <c r="AM40" s="35"/>
+      <c r="AN40" s="35"/>
+      <c r="AO40" s="35"/>
+      <c r="AP40" s="35"/>
+      <c r="AQ40" s="35"/>
+      <c r="AR40" s="35"/>
+      <c r="AS40" s="35"/>
+      <c r="AT40" s="35"/>
+      <c r="AU40" s="35"/>
+      <c r="AV40" s="35"/>
+      <c r="AW40" s="35"/>
+      <c r="AX40" s="35"/>
+      <c r="AY40" s="35"/>
+      <c r="AZ40" s="35"/>
+      <c r="BA40" s="35"/>
+      <c r="BB40" s="35"/>
+      <c r="BC40" s="35"/>
+      <c r="BD40" s="35"/>
+      <c r="BE40" s="35"/>
+      <c r="BF40" s="35"/>
+      <c r="BG40" s="35"/>
+      <c r="BH40" s="35"/>
+      <c r="BI40" s="35"/>
+      <c r="BJ40" s="35"/>
+      <c r="BK40" s="35"/>
+      <c r="BL40" s="35"/>
+      <c r="BM40" s="35"/>
+      <c r="BN40" s="35"/>
+      <c r="BO40" s="35"/>
+      <c r="BP40" s="35"/>
+      <c r="BQ40" s="35"/>
+      <c r="BR40" s="35"/>
+      <c r="BS40" s="35"/>
+      <c r="BT40" s="35"/>
+      <c r="BU40" s="35"/>
+      <c r="BV40" s="35"/>
+      <c r="BW40" s="35"/>
+      <c r="BX40" s="35"/>
+      <c r="BY40" s="35"/>
+      <c r="BZ40" s="35"/>
+      <c r="CA40" s="35"/>
+      <c r="CB40" s="35"/>
+      <c r="CC40" s="35"/>
+      <c r="CD40" s="35"/>
+      <c r="CE40" s="35"/>
+      <c r="CF40" s="35"/>
+      <c r="CG40" s="35"/>
+      <c r="CH40" s="35"/>
+      <c r="CI40" s="35"/>
+      <c r="CJ40" s="35"/>
+      <c r="CK40" s="35"/>
+      <c r="CL40" s="35"/>
+      <c r="CM40" s="35"/>
+      <c r="CN40" s="35"/>
+      <c r="CO40" s="35"/>
+      <c r="CP40" s="35"/>
+      <c r="CQ40" s="35"/>
+      <c r="CR40" s="35"/>
+      <c r="CS40" s="35"/>
+      <c r="CT40" s="35"/>
+      <c r="CU40" s="35"/>
+      <c r="CV40" s="35"/>
+      <c r="CW40" s="35"/>
+      <c r="CX40" s="35"/>
+      <c r="CY40" s="35"/>
+      <c r="CZ40" s="35"/>
+      <c r="DA40" s="35"/>
+      <c r="DB40" s="35"/>
+      <c r="DC40" s="35"/>
+      <c r="DD40" s="35"/>
+      <c r="DE40" s="35"/>
+      <c r="DF40" s="35"/>
     </row>
     <row r="41" spans="1:110" ht="99.75" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="13">
         <v>34</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="38" t="s">
         <v>119</v>
       </c>
       <c r="G41" s="19"/>
@@ -7371,13 +7400,13 @@
         <v>35</v>
       </c>
       <c r="C42" s="19"/>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E42" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="38" t="s">
         <v>115</v>
       </c>
       <c r="G42" s="19"/>
@@ -7491,16 +7520,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="19"/>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="54" t="s">
         <v>120</v>
       </c>
       <c r="H43" s="11"/>
@@ -7613,13 +7642,13 @@
         <v>37</v>
       </c>
       <c r="C44" s="19"/>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E44" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="38" t="s">
         <v>67</v>
       </c>
       <c r="G44" s="19"/>
@@ -7732,14 +7761,14 @@
       <c r="B45" s="13">
         <v>38</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="55" t="s">
+      <c r="C45" s="40"/>
+      <c r="D45" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="54" t="s">
         <v>125</v>
       </c>
       <c r="G45" s="19"/>
@@ -7853,13 +7882,13 @@
         <v>39</v>
       </c>
       <c r="C46" s="19"/>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E46" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="55" t="s">
+      <c r="F46" s="54" t="s">
         <v>84</v>
       </c>
       <c r="G46" s="19" t="s">
@@ -7974,14 +8003,14 @@
       <c r="B47" s="13">
         <v>40</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="55" t="s">
+      <c r="C47" s="37"/>
+      <c r="D47" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E47" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="54" t="s">
         <v>131</v>
       </c>
       <c r="G47" s="19"/>
@@ -8092,8 +8121,8 @@
     <row r="48" spans="1:110" ht="99.75" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="42"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -8879,7 +8908,7 @@
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="40"/>
+      <c r="F55" s="39"/>
       <c r="G55" s="19"/>
       <c r="H55" s="11"/>
       <c r="I55" s="5"/>
@@ -8991,7 +9020,7 @@
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
-      <c r="F56" s="40"/>
+      <c r="F56" s="39"/>
       <c r="G56" s="19"/>
       <c r="H56" s="11"/>
       <c r="I56" s="5"/>
@@ -9103,7 +9132,7 @@
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="40"/>
+      <c r="F57" s="39"/>
       <c r="G57" s="19"/>
       <c r="H57" s="11"/>
       <c r="I57" s="5"/>
@@ -9440,7 +9469,7 @@
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
-      <c r="G60" s="43"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="11"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -9552,7 +9581,7 @@
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
-      <c r="G61" s="44"/>
+      <c r="G61" s="43"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -9998,7 +10027,7 @@
       <c r="B65" s="19"/>
       <c r="C65" s="17"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="45"/>
+      <c r="E65" s="44"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="11"/>
@@ -10110,7 +10139,7 @@
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="45"/>
+      <c r="E66" s="44"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="11"/>
@@ -10222,7 +10251,7 @@
       <c r="B67" s="19"/>
       <c r="C67" s="17"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="45"/>
+      <c r="E67" s="44"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="11"/>
@@ -10333,8 +10362,8 @@
       <c r="A68" s="10"/>
       <c r="B68" s="19"/>
       <c r="C68" s="17"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="45"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="44"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="11"/>
@@ -10446,7 +10475,7 @@
       <c r="B69" s="19"/>
       <c r="C69" s="17"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="45"/>
+      <c r="E69" s="44"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="H69" s="11"/>
@@ -10558,7 +10587,7 @@
       <c r="B70" s="19"/>
       <c r="C70" s="17"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="45"/>
+      <c r="E70" s="44"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
       <c r="H70" s="11"/>
@@ -10670,7 +10699,7 @@
       <c r="B71" s="19"/>
       <c r="C71" s="17"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="45"/>
+      <c r="E71" s="44"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="11"/>
@@ -10782,7 +10811,7 @@
       <c r="B72" s="19"/>
       <c r="C72" s="17"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="45"/>
+      <c r="E72" s="44"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="H72" s="11"/>
@@ -10894,7 +10923,7 @@
       <c r="B73" s="19"/>
       <c r="C73" s="17"/>
       <c r="D73" s="19"/>
-      <c r="E73" s="45"/>
+      <c r="E73" s="44"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="11"/>
@@ -11006,7 +11035,7 @@
       <c r="B74" s="19"/>
       <c r="C74" s="17"/>
       <c r="D74" s="19"/>
-      <c r="E74" s="45"/>
+      <c r="E74" s="44"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="11"/>
@@ -11118,7 +11147,7 @@
       <c r="B75" s="19"/>
       <c r="C75" s="17"/>
       <c r="D75" s="19"/>
-      <c r="E75" s="45"/>
+      <c r="E75" s="44"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="11"/>
@@ -11230,7 +11259,7 @@
       <c r="B76" s="19"/>
       <c r="C76" s="17"/>
       <c r="D76" s="19"/>
-      <c r="E76" s="45"/>
+      <c r="E76" s="44"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="11"/>
@@ -11342,7 +11371,7 @@
       <c r="B77" s="19"/>
       <c r="C77" s="17"/>
       <c r="D77" s="19"/>
-      <c r="E77" s="45"/>
+      <c r="E77" s="44"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" s="11"/>
@@ -11454,7 +11483,7 @@
       <c r="B78" s="19"/>
       <c r="C78" s="17"/>
       <c r="D78" s="19"/>
-      <c r="E78" s="45"/>
+      <c r="E78" s="44"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="11"/>
@@ -11566,7 +11595,7 @@
       <c r="B79" s="19"/>
       <c r="C79" s="17"/>
       <c r="D79" s="19"/>
-      <c r="E79" s="45"/>
+      <c r="E79" s="44"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="11"/>
@@ -11678,7 +11707,7 @@
       <c r="B80" s="19"/>
       <c r="C80" s="17"/>
       <c r="D80" s="19"/>
-      <c r="E80" s="45"/>
+      <c r="E80" s="44"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="11"/>
@@ -11790,7 +11819,7 @@
       <c r="B81" s="19"/>
       <c r="C81" s="17"/>
       <c r="D81" s="19"/>
-      <c r="E81" s="45"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
       <c r="H81" s="11"/>
@@ -11902,7 +11931,7 @@
       <c r="B82" s="19"/>
       <c r="C82" s="17"/>
       <c r="D82" s="19"/>
-      <c r="E82" s="45"/>
+      <c r="E82" s="44"/>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="H82" s="11"/>
@@ -12014,7 +12043,7 @@
       <c r="B83" s="19"/>
       <c r="C83" s="17"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="45"/>
+      <c r="E83" s="44"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="11"/>
@@ -12238,7 +12267,7 @@
       <c r="B85" s="19"/>
       <c r="C85" s="17"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="45"/>
+      <c r="E85" s="44"/>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
       <c r="H85" s="11"/>
@@ -12350,7 +12379,7 @@
       <c r="B86" s="19"/>
       <c r="C86" s="17"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="45"/>
+      <c r="E86" s="44"/>
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
       <c r="H86" s="11"/>
@@ -12458,13 +12487,13 @@
       <c r="DF86" s="6"/>
     </row>
     <row r="87" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A87" s="46"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
       <c r="H87" s="4"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -12570,18 +12599,18 @@
       <c r="DF87" s="6"/>
     </row>
     <row r="88" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A88" s="46"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="49" t="s">
+      <c r="A88" s="45"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="50">
+      <c r="E88" s="49">
         <f>COUNTA(D9:D86)</f>
         <v>39</v>
       </c>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
       <c r="H88" s="4"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -12687,13 +12716,13 @@
       <c r="DF88" s="6"/>
     </row>
     <row r="89" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A89" s="46"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
       <c r="H89" s="4"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -12799,13 +12828,13 @@
       <c r="DF89" s="6"/>
     </row>
     <row r="90" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A90" s="51"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
@@ -13023,7 +13052,7 @@
       <c r="DF91" s="6"/>
     </row>
     <row r="92" spans="1:110" ht="14.25" customHeight="1">
-      <c r="A92" s="53"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -13135,7 +13164,7 @@
       <c r="DF92" s="6"/>
     </row>
     <row r="93" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A93" s="53"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -13247,7 +13276,7 @@
       <c r="DF93" s="6"/>
     </row>
     <row r="94" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A94" s="53"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -13359,7 +13388,7 @@
       <c r="DF94" s="6"/>
     </row>
     <row r="95" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A95" s="53"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -13471,7 +13500,7 @@
       <c r="DF95" s="6"/>
     </row>
     <row r="96" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A96" s="53"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -13583,7 +13612,7 @@
       <c r="DF96" s="6"/>
     </row>
     <row r="97" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A97" s="53"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -13695,7 +13724,7 @@
       <c r="DF97" s="6"/>
     </row>
     <row r="98" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A98" s="53"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -13807,7 +13836,7 @@
       <c r="DF98" s="6"/>
     </row>
     <row r="99" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A99" s="53"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -13919,7 +13948,7 @@
       <c r="DF99" s="6"/>
     </row>
     <row r="100" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A100" s="53"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -14031,7 +14060,7 @@
       <c r="DF100" s="6"/>
     </row>
     <row r="101" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A101" s="53"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -14143,7 +14172,7 @@
       <c r="DF101" s="6"/>
     </row>
     <row r="102" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A102" s="53"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -14255,7 +14284,7 @@
       <c r="DF102" s="6"/>
     </row>
     <row r="103" spans="1:110" ht="15.75" customHeight="1">
-      <c r="A103" s="53"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
